--- a/XAutomateMVC/TestCases/e2e_2.xlsx
+++ b/XAutomateMVC/TestCases/e2e_2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <x:si>
+    <x:t>TC Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -22,34 +25,37 @@
     <x:t>Rule Name</x:t>
   </x:si>
   <x:si>
+    <x:t>TestCae Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Schema</x:t>
+  </x:si>
+  <x:si>
     <x:t>Table_name</x:t>
   </x:si>
   <x:si>
-    <x:t>Schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Table_name1</x:t>
+    <x:t>Schema1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table_name2</x:t>
   </x:si>
   <x:si>
     <x:t>Column_Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Column_Name2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Column_Name3</x:t>
   </x:si>
   <x:si>
+    <x:t>Column_Name4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Value</x:t>
   </x:si>
   <x:si>
-    <x:t>Schema4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Table_name5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column_Name6</x:t>
+    <x:t>Schema5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table_name6</x:t>
   </x:si>
   <x:si>
     <x:t>Column_Name7</x:t>
@@ -61,12 +67,21 @@
     <x:t>Column_Name9</x:t>
   </x:si>
   <x:si>
+    <x:t>Column_Name10</x:t>
+  </x:si>
+  <x:si>
     <x:t>Expected Result</x:t>
   </x:si>
   <x:si>
     <x:t>Expected Value</x:t>
   </x:si>
   <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>506</x:t>
+  </x:si>
+  <x:si>
     <x:t>Attribute_mapping</x:t>
   </x:si>
   <x:si>
@@ -103,7 +118,7 @@
     <x:t>Employee_Dim</x:t>
   </x:si>
   <x:si>
-    <x:t>employee_ID</x:t>
+    <x:t>employee_id</x:t>
   </x:si>
   <x:si>
     <x:t>First_Name</x:t>
@@ -112,10 +127,19 @@
     <x:t>Row Count Is 0</x:t>
   </x:si>
   <x:si>
+    <x:t>507</x:t>
+  </x:si>
+  <x:si>
     <x:t>Last_Name</x:t>
   </x:si>
   <x:si>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
     <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509</x:t>
   </x:si>
   <x:si>
     <x:t>phone</x:t>
@@ -182,26 +206,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_2" displayName="e2e_2" ref="A1:Q5" totalsRowShown="0">
-  <x:autoFilter ref="A1:Q5"/>
-  <x:tableColumns count="17">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Table_name"/>
-    <x:tableColumn id="4" name="Schema"/>
-    <x:tableColumn id="5" name="Table_name1"/>
-    <x:tableColumn id="6" name="Column_Name"/>
-    <x:tableColumn id="7" name="Column_Name2"/>
-    <x:tableColumn id="8" name="Column_Name3"/>
-    <x:tableColumn id="9" name="Value"/>
-    <x:tableColumn id="10" name="Schema4"/>
-    <x:tableColumn id="11" name="Table_name5"/>
-    <x:tableColumn id="12" name="Column_Name6"/>
-    <x:tableColumn id="13" name="Column_Name7"/>
-    <x:tableColumn id="14" name="Column_Name8"/>
-    <x:tableColumn id="15" name="Column_Name9"/>
-    <x:tableColumn id="16" name="Expected Result"/>
-    <x:tableColumn id="17" name="Expected Value"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_2" displayName="e2e_2" ref="A1:U5" totalsRowShown="0">
+  <x:autoFilter ref="A1:U5"/>
+  <x:tableColumns count="21">
+    <x:tableColumn id="1" name="TC Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="TestCae Name"/>
+    <x:tableColumn id="5" name="Schema"/>
+    <x:tableColumn id="6" name="Table_name"/>
+    <x:tableColumn id="7" name="Schema1"/>
+    <x:tableColumn id="8" name="Table_name2"/>
+    <x:tableColumn id="9" name="Column_Name"/>
+    <x:tableColumn id="10" name="Column_Name3"/>
+    <x:tableColumn id="11" name="Column_Name4"/>
+    <x:tableColumn id="12" name="Value"/>
+    <x:tableColumn id="13" name="Schema5"/>
+    <x:tableColumn id="14" name="Table_name6"/>
+    <x:tableColumn id="15" name="Column_Name7"/>
+    <x:tableColumn id="16" name="Column_Name8"/>
+    <x:tableColumn id="17" name="Column_Name9"/>
+    <x:tableColumn id="18" name="Column_Name10"/>
+    <x:tableColumn id="19" name="Expected Result"/>
+    <x:tableColumn id="20" name="Expected Value"/>
+    <x:tableColumn id="21" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -495,13 +523,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q5"/>
+  <x:dimension ref="A1:U5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:17">
+    <x:row r="1" spans="1:21">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -553,205 +581,253 @@
       <x:c r="Q1" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:21">
       <x:c r="A2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:21">
+      <x:c r="A3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="I3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="J3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="K3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21">
+      <x:c r="A4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="K4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="L4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
-      <x:c r="A3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+    <x:row r="5" spans="1:21">
+      <x:c r="A5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="J5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:17">
-      <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
+      <x:c r="N5" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:17">
-      <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
